--- a/Реализация Сервера.xlsx
+++ b/Реализация Сервера.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
   <si>
     <t>Реализация DAO прослойки для доступа к таблицам</t>
   </si>
@@ -171,13 +171,22 @@
   </si>
   <si>
     <t>чтение по id</t>
+  </si>
+  <si>
+    <t>Создан только DAO</t>
+  </si>
+  <si>
+    <t>Реализованно</t>
+  </si>
+  <si>
+    <t>Создан только Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +201,14 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,19 +217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,29 +267,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,7 +608,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,33 +622,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -625,19 +658,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -646,19 +679,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -667,19 +700,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -688,40 +721,40 @@
         <v>8</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -730,19 +763,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -751,40 +784,40 @@
         <v>11</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -793,19 +826,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -814,19 +847,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -835,19 +868,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -856,19 +889,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -877,88 +910,92 @@
         <v>17</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -996,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,393 +1054,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6" t="s">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="8" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Реализация Сервера.xlsx
+++ b/Реализация Сервера.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="56">
   <si>
     <t>Реализация DAO прослойки для доступа к таблицам</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Создан только Service</t>
+  </si>
+  <si>
+    <t>Пока не нужен</t>
   </si>
 </sst>
 </file>
@@ -217,12 +220,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,40 +270,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -608,7 +614,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,252 +628,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
@@ -885,126 +891,128 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1017,14 +1025,12 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1033,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,407 +1060,524 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="15" t="s">
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13" t="s">
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>

--- a/Реализация Сервера.xlsx
+++ b/Реализация Сервера.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hibernate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="57">
   <si>
     <t>Реализация DAO прослойки для доступа к таблицам</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Пока не нужен</t>
+  </si>
+  <si>
+    <t>запись списка</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +245,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,6 +275,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -275,7 +295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -283,15 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,12 +311,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,21 +646,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
@@ -681,23 +699,23 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -723,44 +741,44 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -770,60 +788,63 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -833,19 +854,19 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -854,40 +875,40 @@
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
+      <c r="B13" s="12"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -896,19 +917,19 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -933,86 +954,84 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1025,12 +1044,14 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1041,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,37 +1081,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1118,424 +1139,424 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>22</v>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>22</v>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>22</v>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>22</v>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>22</v>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>22</v>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>22</v>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>22</v>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1552,28 +1573,28 @@
       <c r="J18" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Реализация Сервера.xlsx
+++ b/Реализация Сервера.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="58">
   <si>
     <t>Реализация DAO прослойки для доступа к таблицам</t>
   </si>
@@ -179,13 +179,16 @@
     <t>Реализованно</t>
   </si>
   <si>
-    <t>Создан только Service</t>
-  </si>
-  <si>
     <t>Пока не нужен</t>
   </si>
   <si>
     <t>запись списка</t>
+  </si>
+  <si>
+    <t>не нужен</t>
+  </si>
+  <si>
+    <t>Без тестов</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -300,8 +303,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,6 +313,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -323,8 +330,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,7 +638,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="A15:G15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,21 +652,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
@@ -678,10 +684,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
@@ -699,10 +705,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
@@ -720,10 +726,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -741,10 +747,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
@@ -762,10 +768,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
@@ -783,17 +789,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -802,15 +808,15 @@
       <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>56</v>
+      <c r="H8" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -828,10 +834,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
@@ -849,10 +855,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
@@ -870,10 +876,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
@@ -891,10 +897,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
@@ -912,10 +918,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
@@ -933,10 +939,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
@@ -954,10 +960,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
@@ -981,48 +987,50 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1063,7 +1071,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,37 +1089,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1139,391 +1147,391 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="B15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
@@ -1535,13 +1543,13 @@
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1573,28 +1581,28 @@
       <c r="J18" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Реализация Сервера.xlsx
+++ b/Реализация Сервера.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hibernate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
   <si>
     <t>Реализация DAO прослойки для доступа к таблицам</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Без тестов</t>
+  </si>
+  <si>
+    <t>Реализованно с тестами</t>
+  </si>
+  <si>
+    <t>Реализовано без тестов</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -304,8 +316,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,7 +332,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -330,7 +350,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -637,12 +656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -652,21 +673,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
@@ -684,10 +705,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
@@ -705,52 +726,52 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
@@ -768,10 +789,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
@@ -789,76 +810,76 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
@@ -876,52 +897,52 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
@@ -939,10 +960,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
@@ -960,10 +981,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
@@ -987,50 +1008,52 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="16"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="11"/>
+      <c r="A19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1070,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,37 +1112,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1147,10 +1170,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1162,25 +1185,25 @@
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1192,25 +1215,25 @@
       <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1222,25 +1245,25 @@
       <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1252,25 +1275,25 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1282,28 +1305,28 @@
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1312,25 +1335,25 @@
       <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="18" t="s">
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1342,25 +1365,25 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1372,25 +1395,25 @@
       <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="F11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1402,25 +1425,25 @@
       <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="18" t="s">
+      <c r="F12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1432,25 +1455,25 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1462,25 +1485,25 @@
       <c r="E14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1492,25 +1515,25 @@
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="18" t="s">
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1522,16 +1545,16 @@
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="18" t="s">
+      <c r="F16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2"/>
@@ -1581,28 +1604,28 @@
       <c r="J18" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
